--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>repository setup</t>
+  </si>
+  <si>
+    <t>latex setup, svn externals</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,12 +482,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2">
+        <v>41874</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>latex setup, svn externals</t>
+  </si>
+  <si>
+    <t>direct intersection</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,12 +503,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="2">
+        <v>41874</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>direct intersection</t>
+  </si>
+  <si>
+    <t>papers about triangle triangle intersection</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,12 +524,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2">
+        <v>41856</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="2355" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>papers about triangle triangle intersection</t>
+  </si>
+  <si>
+    <t>triangle triangle intersection</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +528,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>41856</v>
+        <v>41876</v>
       </c>
       <c r="B7" s="3">
         <v>0.9375</v>
@@ -542,30 +545,57 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2">
+        <v>41880</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="2">
+        <v>41881</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="2">
+        <v>41881</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2355" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="2805" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>triangle triangle intersection</t>
+  </si>
+  <si>
+    <t>intersecting edge dumping, square_tube</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,30 +602,57 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2">
+        <v>41881</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="2">
+        <v>41882</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2">
+        <v>41882</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.13541666666666666</v>
+      </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1249999999999986E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2805" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="3255" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>intersecting edge dumping, square_tube</t>
+  </si>
+  <si>
+    <t>merging changes from trunk and some restructuring</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,12 +659,21 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="2">
+        <v>41918</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3255" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>merging changes from trunk and some restructuring</t>
+  </si>
+  <si>
+    <t>searched for further intersection test implementations online, integrated implementation of Moller1997, successfully tested cube2 scene, discussed direct intersection algorithm with mhava</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -413,16 +416,16 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="172.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -677,12 +680,21 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="2">
+        <v>41919</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="4155" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>searched for further intersection test implementations online, integrated implementation of Moller1997, successfully tested cube2 scene, discussed direct intersection algorithm with mhava</t>
+  </si>
+  <si>
+    <t>working on direct intersection meta data</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -416,10 +419,10 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -698,12 +701,21 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="2">
+        <v>41920</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4155" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="4605" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>working on direct intersection meta data</t>
+  </si>
+  <si>
+    <t>implemented direct intersection triangle discarding and secondary ray inside test</t>
+  </si>
+  <si>
+    <t>browsing for a freely and commercially available implementation of a constrained delaunay triangulation</t>
   </si>
 </sst>
 </file>
@@ -419,7 +425,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,25 +724,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>41920</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>41921</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6.25E-2</v>
+      </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -745,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -754,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -763,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -772,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -781,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -790,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -799,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -808,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -817,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -826,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -835,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -844,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -853,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4605" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="5055" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>browsing for a freely and commercially available implementation of a constrained delaunay triangulation</t>
+  </si>
+  <si>
+    <t>preparing presentation</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,30 +764,57 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="2">
+        <v>41925</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.8125</v>
+      </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="2">
+        <v>41926</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="2">
+        <v>42291</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5.2083333333333336E-2</v>
+      </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="5055" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="5505" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>preparing presentation</t>
+  </si>
+  <si>
+    <t>preparing for presentation</t>
+  </si>
+  <si>
+    <t>conducting presentation</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +807,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>42291</v>
+        <v>41927</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -818,21 +824,39 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="2">
+        <v>41927</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="2">
+        <v>41927</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="5505" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="5955" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>conducting presentation</t>
+  </si>
+  <si>
+    <t>implementing triangulation</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,66 +863,129 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="2">
+        <v>41928</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="2">
+        <v>41928</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="2">
+        <v>41928</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="2">
+        <v>41929</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="2">
+        <v>41929</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="2">
+        <v>41929</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="2">
+        <v>41929</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D30" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="5955" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="6405" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>implementing triangulation</t>
+  </si>
+  <si>
+    <t>latex setup for exposé</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,12 +992,21 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="2">
+        <v>41931</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.875</v>
+      </c>
       <c r="D31" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="6405" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="6855" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -80,15 +80,19 @@
   </si>
   <si>
     <t>latex setup for exposé</t>
+  </si>
+  <si>
+    <t>reviewing literature for exposé</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="167" formatCode="[h]:m"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -128,11 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,51 +1015,96 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="2">
+        <v>41932</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>41932</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" ref="D33:D34" si="1">C33-B33</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>41934</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>41934</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>41935</v>
+      </c>
+      <c r="B36" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D36" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1063,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1072,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1081,13 +1131,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="4">
+        <f>SUM(D2:D40)</f>
+        <v>2.8090277777777777</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="6855" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="7305" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -92,7 +92,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-    <numFmt numFmtId="167" formatCode="[h]:m"/>
+    <numFmt numFmtId="166" formatCode="[h]:m"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -137,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,30 +1105,57 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="2">
+        <v>41936</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D37" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="2">
+        <v>41936</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D38" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="2">
+        <v>41937</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="D39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666666</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,7 +1170,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" s="4">
         <f>SUM(D2:D40)</f>
-        <v>2.8090277777777777</v>
+        <v>3.1215277777777772</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="7305" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="7755" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>reviewing literature for exposé</t>
+  </si>
+  <si>
+    <t>annotated bibliography</t>
   </si>
 </sst>
 </file>
@@ -132,12 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,18 +1163,39 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="2">
+        <v>41939</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D40" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>41939</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.78472222222222221</v>
+      </c>
       <c r="D41" s="4">
         <f>SUM(D2:D40)</f>
-        <v>3.1215277777777772</v>
+        <v>3.2673611111111107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="7755" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="8205" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
         <v>0.1076388888888889</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D40" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D63" si="0">C3-B3</f>
         <v>1.0416666666666671E-2</v>
       </c>
       <c r="E3" t="s">
@@ -1190,12 +1190,216 @@
       <c r="C41" s="5">
         <v>0.78472222222222221</v>
       </c>
-      <c r="D41" s="4">
-        <f>SUM(D2:D40)</f>
-        <v>3.2673611111111107</v>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24305555555555558</v>
       </c>
       <c r="E41" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41940</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>41941</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C43" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>41941</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>41941</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="D52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="D56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="D57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="D58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="D59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="D60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="D61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="D62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="D63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="4">
+        <f>SUM(D2:D63)</f>
+        <v>3.7291666666666661</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="8205" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="8655" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>annotated bibliography</t>
+  </si>
+  <si>
+    <t>debugging triangle intersection</t>
+  </si>
+  <si>
+    <t>Exposè</t>
   </si>
 </sst>
 </file>
@@ -448,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,135 +1277,245 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2">
+        <v>41941</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D46" s="3">
         <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>41941</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>41942</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>41943</v>
+      </c>
+      <c r="B49" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="D47" s="3">
-        <f t="shared" si="0"/>
+      <c r="C49" s="5">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>41943</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>41943</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>41948</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>41948</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>41948</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.90625</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>41949</v>
+      </c>
+      <c r="B55" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="D48" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="D49" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="D50" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="D51" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="D52" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="D53" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="D54" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="C55" s="5">
+        <v>0.125</v>
+      </c>
       <c r="D55" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="D56" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="D57" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="D58" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="D59" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="D60" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="D61" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="D62" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="D63" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D64" s="4">
         <f>SUM(D2:D63)</f>
-        <v>3.7291666666666661</v>
+        <v>4.677083333333333</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="8655" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="9105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="172.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1457,31 +1457,75 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2">
+        <v>41961</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.75</v>
+      </c>
       <c r="D56" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2">
+        <v>41961</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0.875</v>
+      </c>
       <c r="D57" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2">
+        <v>41961</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D58" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2">
+        <v>41962</v>
+      </c>
+      <c r="B59" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C59" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D59" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,7 +1559,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D64" s="4">
         <f>SUM(D2:D63)</f>
-        <v>4.677083333333333</v>
+        <v>4.9826388888888884</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="9105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="9555" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>date</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Exposè</t>
+  </si>
+  <si>
+    <t>implementing tri cast</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,24 +1532,57 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2">
+        <v>41969</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0.75</v>
+      </c>
       <c r="D60" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1875</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2">
+        <v>41969</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.875</v>
+      </c>
       <c r="D61" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2">
+        <v>41969</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0.90625</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
       <c r="D62" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1559,7 +1595,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D64" s="4">
         <f>SUM(D2:D63)</f>
-        <v>4.9826388888888884</v>
+        <v>5.3472222222222214</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="9555" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="10005" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>implementing tri cast</t>
+  </si>
+  <si>
+    <t>thesis introduction presentation</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,16 +1589,77 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="D63" s="3">
-        <f t="shared" si="0"/>
+      <c r="A63" s="2">
+        <v>41980</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>41980</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D64" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>41980</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C65" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D64" s="4">
-        <f>SUM(D2:D63)</f>
-        <v>5.3472222222222214</v>
+      <c r="D65" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>41981</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D69" s="4">
+        <f>SUM(D2:D68)</f>
+        <v>5.7638888888888893</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="10005" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="10455" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>0.1076388888888889</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D63" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D62" si="0">C3-B3</f>
         <v>1.0416666666666671E-2</v>
       </c>
       <c r="E3" t="s">
@@ -1656,10 +1656,44 @@
         <v>27</v>
       </c>
     </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>41982</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>41982</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D69" s="4">
         <f>SUM(D2:D68)</f>
-        <v>5.7638888888888893</v>
+        <v>6.2222222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="10455" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="10905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>0.1076388888888889</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D62" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D66" si="0">C3-B3</f>
         <v>1.0416666666666671E-2</v>
       </c>
       <c r="E3" t="s">
@@ -1598,8 +1598,9 @@
       <c r="C63" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D63" s="5">
-        <v>0.16666666666666666</v>
+      <c r="D63" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666674</v>
       </c>
       <c r="E63" t="s">
         <v>27</v>
@@ -1615,8 +1616,9 @@
       <c r="C64" s="5">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D64" s="5">
-        <v>4.1666666666666664E-2</v>
+      <c r="D64" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="E64" t="s">
         <v>27</v>
@@ -1630,10 +1632,11 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C65" s="5">
-        <v>0</v>
-      </c>
-      <c r="D65" s="5">
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="E65" t="s">
         <v>27</v>
@@ -1649,7 +1652,8 @@
       <c r="C66" s="5">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="3">
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E66" t="s">
@@ -1666,8 +1670,9 @@
       <c r="C67" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D67" s="5">
-        <v>0.20833333333333301</v>
+      <c r="D67" s="3">
+        <f t="shared" ref="D67:D69" si="2">C67-B67</f>
+        <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
         <v>27</v>
@@ -1683,17 +1688,36 @@
       <c r="C68" s="5">
         <v>0.875</v>
       </c>
-      <c r="D68" s="5">
-        <v>0.25</v>
+      <c r="D68" s="3">
+        <f t="shared" si="2"/>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="E68" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D69" s="4">
-        <f>SUM(D2:D68)</f>
-        <v>6.2222222222222223</v>
+      <c r="A69" s="2">
+        <v>41983</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="4">
+        <f>SUM(D2:D69)</f>
+        <v>5.8784722222222223</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="10905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="11355" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>thesis introduction presentation</t>
+  </si>
+  <si>
+    <t>chapter overview</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,7 +1674,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D69" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D70" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -1715,9 +1718,165 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D70" s="4">
-        <f>SUM(D2:D69)</f>
-        <v>5.8784722222222223</v>
+      <c r="A70" s="2">
+        <v>42024</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="4">
+        <f>SUM(D2:D93)</f>
+        <v>5.8993055555555554</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="11355" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="11805" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>chapter overview</t>
+  </si>
+  <si>
+    <t>tri dexel implementation</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1677,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D70" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D76" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -1736,40 +1739,112 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="2">
+        <v>42030</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="2">
+        <v>42030</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23958333333333326</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="2">
+        <v>42031</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="2">
+        <v>42032</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="3"/>
+      <c r="A75" s="2">
+        <v>42032</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="3"/>
+      <c r="A76" s="2">
+        <v>42037</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
@@ -1876,7 +1951,7 @@
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D94" s="4">
         <f>SUM(D2:D93)</f>
-        <v>5.8993055555555554</v>
+        <v>6.5555555555555562</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="11805" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="12255" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,7 +1677,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D76" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D81" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -1847,111 +1847,171 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="3"/>
+      <c r="A77" s="2">
+        <v>42044</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E77" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="3"/>
+      <c r="A78" s="2">
+        <v>42045</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="3"/>
+      <c r="A79" s="2">
+        <v>42046</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>42051</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.84375</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" si="2"/>
+        <v>0.30208333333333337</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>42052</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" si="2"/>
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D94" s="4">
         <f>SUM(D2:D93)</f>
-        <v>6.5555555555555562</v>
+        <v>8.0347222222222232</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12255" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="12705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+      <selection activeCell="I82" sqref="I82:I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,7 +1677,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D81" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D82" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -1937,10 +1937,22 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="3"/>
+      <c r="A82" s="2">
+        <v>42053</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" si="2"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
@@ -2011,7 +2023,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D94" s="4">
         <f>SUM(D2:D93)</f>
-        <v>8.0347222222222232</v>
+        <v>8.0902777777777786</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="13155" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82:I83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,7 +1677,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D82" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D88" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -1955,40 +1955,112 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="3"/>
+      <c r="A83" s="2">
+        <v>42054</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2013888888888889</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="3"/>
+      <c r="A84" s="2">
+        <v>42056</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D84" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="3"/>
+      <c r="A85" s="2">
+        <v>42058</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" si="2"/>
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="3"/>
+      <c r="A86" s="2">
+        <v>42059</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="3"/>
+      <c r="A87" s="2">
+        <v>42060</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" si="2"/>
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="3"/>
+      <c r="A88" s="2">
+        <v>42065</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
@@ -2023,7 +2095,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D94" s="4">
         <f>SUM(D2:D93)</f>
-        <v>8.0902777777777786</v>
+        <v>9.6562500000000018</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="13155" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="13575" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
   <si>
     <t>date</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>tri dexel implementation</t>
+  </si>
+  <si>
+    <t>thesis chapter introduction</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,7 +1680,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D88" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D92" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -2063,28 +2066,76 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="3"/>
+      <c r="A89" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="3"/>
+      <c r="A90" s="2">
+        <v>42104</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12499999999999994</v>
+      </c>
+      <c r="E90" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="3"/>
+      <c r="A91" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="E91" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="3"/>
+      <c r="A92" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D92" s="3">
+        <f t="shared" si="2"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
@@ -2095,7 +2146,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D94" s="4">
         <f>SUM(D2:D93)</f>
-        <v>9.6562500000000018</v>
+        <v>10.13541666666667</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="13575" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="14025" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
   <si>
     <t>date</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>thesis chapter introduction</t>
+  </si>
+  <si>
+    <t>thesis chapter fundamentals</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1683,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D92" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D94" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -2138,15 +2141,45 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="3"/>
+      <c r="A93" s="2">
+        <v>42114</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D93" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D94" s="4">
-        <f>SUM(D2:D93)</f>
-        <v>10.13541666666667</v>
+      <c r="A94" s="2">
+        <v>42114</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D94" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="E94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="4">
+        <f>SUM(D2:D123)</f>
+        <v>10.38541666666667</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="14025" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="14475" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="32">
   <si>
     <t>date</t>
   </si>
@@ -473,7 +473,7 @@
   <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1683,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D94" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D96" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -2176,10 +2176,93 @@
         <v>31</v>
       </c>
     </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>42115</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" si="2"/>
+        <v>3.1249999999999944E-2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>42115</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D96" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>42116</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+    </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="4">
         <f>SUM(D2:D123)</f>
-        <v>10.38541666666667</v>
+        <v>10.63541666666667</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="14475" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="14925" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
   <si>
     <t>date</t>
   </si>
@@ -109,7 +109,10 @@
     <t>thesis chapter introduction</t>
   </si>
   <si>
-    <t>thesis chapter fundamentals</t>
+    <t>thesis chapter fundamentals, surface representations</t>
+  </si>
+  <si>
+    <t>thesis chapter fundamentals, surface representations and terms</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1686,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D96" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D123" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -2222,47 +2225,196 @@
       <c r="C97" s="5">
         <v>0.77083333333333337</v>
       </c>
+      <c r="D97" s="3">
+        <f t="shared" si="2"/>
+        <v>0.22916666666666674</v>
+      </c>
       <c r="E97" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="A98" s="2">
+        <v>42117</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20486111111111116</v>
+      </c>
+      <c r="E98" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
+      <c r="D99" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
+      <c r="D100" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
+      <c r="D101" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
+      <c r="D102" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
+      <c r="D103" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
+      <c r="D104" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
+      <c r="D105" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
+      <c r="D106" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
+      <c r="D107" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
+      <c r="D108" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D109" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D110" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D111" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D112" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="4">
         <f>SUM(D2:D123)</f>
-        <v>10.63541666666667</v>
+        <v>11.069444444444446</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="14925" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="15375" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>thesis chapter fundamentals, surface representations and terms</t>
+  </si>
+  <si>
+    <t>thesis chapter fundamentals, terms</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,17 +2255,39 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+      <c r="A99" s="2">
+        <v>42120</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0.625</v>
+      </c>
       <c r="D99" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="E99" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+      <c r="A100" s="2">
+        <v>42120</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0.8125</v>
+      </c>
       <c r="D100" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E100" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,7 +2439,7 @@
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="4">
         <f>SUM(D2:D123)</f>
-        <v>11.069444444444446</v>
+        <v>11.381944444444446</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15375" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="15825" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>date</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>thesis chapter fundamentals, terms</t>
+  </si>
+  <si>
+    <t>migrated repository to bitbucket, reattached lost history from projectlocker</t>
+  </si>
+  <si>
+    <t>editing commit messages and cleaning up history</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
   <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,17 +2297,39 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
+      <c r="A101" s="2">
+        <v>42121</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D101" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E101" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
+      <c r="A102" s="2">
+        <v>42121</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="D102" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2439,7 +2467,7 @@
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="4">
         <f>SUM(D2:D123)</f>
-        <v>11.381944444444446</v>
+        <v>11.538194444444446</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15825" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="16275" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
   <si>
     <t>date</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>editing commit messages and cleaning up history</t>
+  </si>
+  <si>
+    <t>layouting images in fundamentals, thesis chapter previous work</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,10 +2336,21 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
+      <c r="A103" s="2">
+        <v>42121</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0.78472222222222221</v>
+      </c>
       <c r="D103" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.17013888888888884</v>
+      </c>
+      <c r="E103" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2467,7 +2481,7 @@
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="4">
         <f>SUM(D2:D123)</f>
-        <v>11.538194444444446</v>
+        <v>11.708333333333336</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="16275" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="16725" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
   <si>
     <t>date</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>layouting images in fundamentals, thesis chapter previous work</t>
+  </si>
+  <si>
+    <t>thesis chapter previous work</t>
   </si>
 </sst>
 </file>
@@ -487,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,24 +2357,57 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
+      <c r="A104" s="2">
+        <v>42122</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D104" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
+      <c r="A105" s="2">
+        <v>42122</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0.625</v>
+      </c>
       <c r="D105" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
+      <c r="A106" s="2">
+        <v>42122</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C106" s="5">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D106" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2481,7 +2517,7 @@
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="4">
         <f>SUM(D2:D123)</f>
-        <v>11.708333333333336</v>
+        <v>11.875000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="16725" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="17175" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="38">
   <si>
     <t>date</t>
   </si>
@@ -491,7 +491,7 @@
   <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,29 +2411,75 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
+      <c r="A107" s="2">
+        <v>42123</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D107" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.22916666666666669</v>
+      </c>
+      <c r="E107" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
+      <c r="A108" s="2">
+        <v>42123</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D108" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E108" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>42124</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C109" s="5">
+        <v>0.53125</v>
+      </c>
       <c r="D109" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>42124</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0.75</v>
+      </c>
       <c r="D110" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.17708333333333337</v>
+      </c>
+      <c r="E110" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2517,7 +2563,7 @@
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="4">
         <f>SUM(D2:D123)</f>
-        <v>11.875000000000002</v>
+        <v>12.500000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="17175" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="17625" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
   <si>
     <t>date</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>thesis chapter previous work</t>
+  </si>
+  <si>
+    <t>thesis chapter state of the art</t>
   </si>
 </sst>
 </file>
@@ -490,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,87 +2486,147 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C111" s="5">
+        <v>1</v>
+      </c>
       <c r="D111" s="3">
         <f t="shared" si="2"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>42126</v>
+      </c>
+      <c r="B112" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C112" s="5">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="D112" s="3">
         <f t="shared" si="2"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E112" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D115" s="3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D116" s="3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D117" s="3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D118" s="3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D119" s="3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D120" s="3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D121" s="3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D122" s="3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D123" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
       <c r="D124" s="4">
         <f>SUM(D2:D123)</f>
-        <v>12.500000000000002</v>
+        <v>12.645833333333334</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="17625" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="18045" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
   <si>
     <t>date</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>thesis chapter state of the art</t>
+  </si>
+  <si>
+    <t>vectorizing graphics</t>
+  </si>
+  <si>
+    <t>filtering jpg graphics</t>
+  </si>
+  <si>
+    <t>extended chapter state of the art, proof-reading</t>
+  </si>
+  <si>
+    <t>prof-reading</t>
   </si>
 </sst>
 </file>
@@ -494,7 +506,7 @@
   <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,52 +2533,97 @@
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>42127</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C113" s="5">
+        <v>1</v>
+      </c>
       <c r="D113" s="3">
         <f t="shared" si="2"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>42128</v>
+      </c>
+      <c r="B114" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
+      <c r="C114" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="D114" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>42128</v>
+      </c>
+      <c r="B115" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C115" s="5">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D115" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>42128</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C116" s="5">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D116" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
+        <v>0.30208333333333326</v>
+      </c>
+      <c r="E116" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>42129</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="C117" s="5">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="D117" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0833333333333343E-2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -2575,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -2584,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -2593,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -2602,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -2611,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -2620,13 +2677,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="4">
         <f>SUM(D2:D123)</f>
-        <v>12.645833333333334</v>
+        <v>13.114583333333336</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18045" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="18495" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
   <si>
     <t>date</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>prof-reading</t>
+  </si>
+  <si>
+    <t>presentation for DAS4</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
   <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+      <selection activeCell="G116" sqref="G115:G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,21 +2627,39 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
+      <c r="A118" s="2">
+        <v>42130</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C118" s="5">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D118" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1875</v>
+      </c>
+      <c r="E118" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
+      <c r="A119" s="2">
+        <v>42131</v>
+      </c>
+      <c r="B119" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0.25</v>
+      </c>
       <c r="D119" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="E119" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2683,7 +2704,7 @@
       <c r="C124" s="5"/>
       <c r="D124" s="4">
         <f>SUM(D2:D123)</f>
-        <v>13.114583333333336</v>
+        <v>13.468750000000002</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18495" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="18945" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="individuals" sheetId="1" r:id="rId1"/>
+    <sheet name="total" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
   <si>
     <t>date</t>
   </si>
@@ -146,6 +147,36 @@
   </si>
   <si>
     <t>presentation for DAS4</t>
+  </si>
+  <si>
+    <t>refactoring tri dexel</t>
+  </si>
+  <si>
+    <t>refactoring tri dexel for feature sensitive slicing</t>
+  </si>
+  <si>
+    <t>Total hours:</t>
+  </si>
+  <si>
+    <t>irregular edge collection, cell dividers, tri dexel</t>
+  </si>
+  <si>
+    <t>feature sensitive slicing in tri dexel</t>
+  </si>
+  <si>
+    <t>analysing mesh holes in tri dexel after feature sensitive slicing</t>
+  </si>
+  <si>
+    <t>tri dexel parallelization and improvements</t>
+  </si>
+  <si>
+    <t>improving numerics of axis aligned raycast</t>
+  </si>
+  <si>
+    <t>fixing winding order in tri dexel</t>
+  </si>
+  <si>
+    <t>hole closing</t>
   </si>
 </sst>
 </file>
@@ -506,32 +537,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G116" sqref="G115:G116"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="83.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -542,10 +573,10 @@
       <c r="A2" s="2">
         <v>41830</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>0.6875</v>
       </c>
       <c r="D2" s="3">
@@ -560,10 +591,10 @@
       <c r="A3" s="2">
         <v>41831</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>0.1076388888888889</v>
       </c>
       <c r="D3" s="3">
@@ -578,10 +609,10 @@
       <c r="A4" s="2">
         <v>41836</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D4" s="3">
@@ -596,10 +627,10 @@
       <c r="A5" s="2">
         <v>41874</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D5" s="3">
@@ -614,10 +645,10 @@
       <c r="A6" s="2">
         <v>41874</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>0.95833333333333337</v>
       </c>
       <c r="D6" s="3">
@@ -632,10 +663,10 @@
       <c r="A7" s="2">
         <v>41876</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>0.9375</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>0.97916666666666663</v>
       </c>
       <c r="D7" s="3">
@@ -650,10 +681,10 @@
       <c r="A8" s="2">
         <v>41880</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>0.75</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>0.79166666666666663</v>
       </c>
       <c r="D8" s="3">
@@ -668,10 +699,10 @@
       <c r="A9" s="2">
         <v>41881</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D9" s="3">
@@ -686,10 +717,10 @@
       <c r="A10" s="2">
         <v>41881</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>0.14583333333333334</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>0.22916666666666666</v>
       </c>
       <c r="D10" s="3">
@@ -704,10 +735,10 @@
       <c r="A11" s="2">
         <v>41881</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>0.625</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="D11" s="3">
@@ -722,10 +753,10 @@
       <c r="A12" s="2">
         <v>41882</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D12" s="3">
@@ -740,10 +771,10 @@
       <c r="A13" s="2">
         <v>41882</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>0.10416666666666667</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>0.13541666666666666</v>
       </c>
       <c r="D13" s="3">
@@ -758,10 +789,10 @@
       <c r="A14" s="2">
         <v>41918</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>0.97916666666666663</v>
       </c>
       <c r="D14" s="3">
@@ -776,10 +807,10 @@
       <c r="A15" s="2">
         <v>41919</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>0.79166666666666663</v>
       </c>
       <c r="D15" s="3">
@@ -794,10 +825,10 @@
       <c r="A16" s="2">
         <v>41920</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D16" s="3">
@@ -812,10 +843,10 @@
       <c r="A17" s="2">
         <v>41920</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="3">
@@ -830,10 +861,10 @@
       <c r="A18" s="2">
         <v>41921</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
         <v>0</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>6.25E-2</v>
       </c>
       <c r="D18" s="3">
@@ -848,10 +879,10 @@
       <c r="A19" s="2">
         <v>41925</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>0.8125</v>
       </c>
       <c r="D19" s="3">
@@ -866,10 +897,10 @@
       <c r="A20" s="2">
         <v>41926</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>0.5</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="3">
@@ -884,10 +915,10 @@
       <c r="A21" s="2">
         <v>41927</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>0</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D21" s="3">
@@ -902,10 +933,10 @@
       <c r="A22" s="2">
         <v>41927</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
         <v>0.5</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>0.58333333333333337</v>
       </c>
       <c r="D22" s="3">
@@ -920,10 +951,10 @@
       <c r="A23" s="2">
         <v>41927</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="D23" s="3">
@@ -938,10 +969,10 @@
       <c r="A24" s="2">
         <v>41928</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>0.5</v>
       </c>
       <c r="D24" s="3">
@@ -956,10 +987,10 @@
       <c r="A25" s="2">
         <v>41928</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
         <v>0.625</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="D25" s="3">
@@ -974,10 +1005,10 @@
       <c r="A26" s="2">
         <v>41928</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="5">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="3">
@@ -992,10 +1023,10 @@
       <c r="A27" s="2">
         <v>41929</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="5">
         <v>0</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D27" s="3">
@@ -1010,10 +1041,10 @@
       <c r="A28" s="2">
         <v>41929</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="5">
         <v>0.5</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
         <v>0.58333333333333337</v>
       </c>
       <c r="D28" s="3">
@@ -1028,10 +1059,10 @@
       <c r="A29" s="2">
         <v>41929</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
         <v>0.64583333333333337</v>
       </c>
       <c r="D29" s="3">
@@ -1046,10 +1077,10 @@
       <c r="A30" s="2">
         <v>41929</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="5">
         <v>0.75</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <v>0.77083333333333337</v>
       </c>
       <c r="D30" s="3">
@@ -1064,10 +1095,10 @@
       <c r="A31" s="2">
         <v>41931</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <v>0.875</v>
       </c>
       <c r="D31" s="3">
@@ -1082,10 +1113,10 @@
       <c r="A32" s="2">
         <v>41932</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="5">
         <v>0.625</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="D32" s="3">
@@ -1100,10 +1131,10 @@
       <c r="A33" s="2">
         <v>41932</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <v>0.9375</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
         <v>1</v>
       </c>
       <c r="D33" s="3">
@@ -1118,10 +1149,10 @@
       <c r="A34" s="2">
         <v>41934</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="5">
         <v>0.6875</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <v>0.77083333333333337</v>
       </c>
       <c r="D34" s="3">
@@ -1136,10 +1167,10 @@
       <c r="A35" s="2">
         <v>41934</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="5">
         <v>0.97916666666666663</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="5">
         <v>1</v>
       </c>
       <c r="D35" s="3">
@@ -1154,10 +1185,10 @@
       <c r="A36" s="2">
         <v>41935</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="5">
         <v>0</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D36" s="3">
@@ -1172,10 +1203,10 @@
       <c r="A37" s="2">
         <v>41936</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="D37" s="3">
@@ -1190,10 +1221,10 @@
       <c r="A38" s="2">
         <v>41936</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="5">
         <v>0.95833333333333337</v>
       </c>
       <c r="D38" s="3">
@@ -1208,10 +1239,10 @@
       <c r="A39" s="2">
         <v>41937</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="5">
         <v>6.25E-2</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="5">
         <v>0.16666666666666666</v>
       </c>
       <c r="D39" s="3">
@@ -1226,10 +1257,10 @@
       <c r="A40" s="2">
         <v>41939</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="5">
         <v>0.5</v>
       </c>
       <c r="D40" s="3">
@@ -1719,7 +1750,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D123" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D133" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -2663,52 +2694,286 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
+      <c r="A120" s="2">
+        <v>42135</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="D120" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
+      <c r="A121" s="2">
+        <v>42136</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C121" s="5">
+        <v>0.375</v>
+      </c>
       <c r="D121" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
+      <c r="A122" s="2">
+        <v>42136</v>
+      </c>
+      <c r="B122" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C122" s="5">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D122" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
+      <c r="A123" s="2">
+        <v>42136</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C123" s="5">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="D123" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E123" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="4">
-        <f>SUM(D2:D123)</f>
-        <v>13.468750000000002</v>
+      <c r="A124" s="2">
+        <v>42136</v>
+      </c>
+      <c r="B124" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C124" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D124" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>42137</v>
+      </c>
+      <c r="B125" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C125" s="5">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D125" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26388888888888884</v>
+      </c>
+      <c r="E125" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>42139</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C126" s="5">
+        <v>1</v>
+      </c>
+      <c r="D126" s="3">
+        <f t="shared" si="2"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>42142</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D127" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E127" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>42142</v>
+      </c>
+      <c r="B128" s="5">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C128" s="5">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D128" s="3">
+        <f t="shared" si="2"/>
+        <v>0.29861111111111105</v>
+      </c>
+      <c r="E128" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>42143</v>
+      </c>
+      <c r="B129" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C129" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D129" s="3">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E129" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>42144</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C130" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D130" s="3">
+        <f t="shared" si="2"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>42144</v>
+      </c>
+      <c r="B131" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C131" s="5">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D131" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E131" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>42145</v>
+      </c>
+      <c r="B132" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C132" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="D132" s="3">
+        <f t="shared" si="2"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>42145</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C133" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="D133" s="3">
+        <f t="shared" si="2"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4">
+        <f>SUM(individuals!D2:D1000)</f>
+        <v>15.093750000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18945" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="19395" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>date</t>
   </si>
@@ -176,7 +176,13 @@
     <t>fixing winding order in tri dexel</t>
   </si>
   <si>
-    <t>hole closing</t>
+    <t>tridexel hole closing</t>
+  </si>
+  <si>
+    <t>direct intersection robustness</t>
+  </si>
+  <si>
+    <t>latex corrections by wbackfrieder</t>
   </si>
 </sst>
 </file>
@@ -537,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1756,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D133" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D148" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -2943,6 +2949,276 @@
       </c>
       <c r="E133" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>42147</v>
+      </c>
+      <c r="B134" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C134" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D134" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="E134" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>42148</v>
+      </c>
+      <c r="B135" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C135" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D135" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E135" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>42150</v>
+      </c>
+      <c r="B136" s="5">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C136" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D136" s="3">
+        <f t="shared" si="2"/>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="E136" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>42150</v>
+      </c>
+      <c r="B137" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C137" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D137" s="3">
+        <f t="shared" si="2"/>
+        <v>6.2500000000000056E-2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>42150</v>
+      </c>
+      <c r="B138" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C138" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="D138" s="3">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E138" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>42150</v>
+      </c>
+      <c r="B139" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="C139" s="5">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D139" s="3">
+        <f t="shared" si="2"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E139" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>42151</v>
+      </c>
+      <c r="B140" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C140" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D140" s="3">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="E140" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B141" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C141" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D141" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E141" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C142" s="5">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D142" s="3">
+        <f t="shared" si="2"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E142" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>42157</v>
+      </c>
+      <c r="B143" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C143" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D143" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="E143" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>42165</v>
+      </c>
+      <c r="B144" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C144" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D144" s="3">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E144" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>42165</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C145" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D145" s="3">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="E145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>42166</v>
+      </c>
+      <c r="B146" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C146" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D146" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E146" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>42170</v>
+      </c>
+      <c r="B147" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D147" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12499999999999994</v>
+      </c>
+      <c r="E147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>42170</v>
+      </c>
+      <c r="B148" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C148" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="D148" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="E148" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2970,7 +3246,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>15.093750000000004</v>
+        <v>16.930555555555557</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="19395" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="19845" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
   <si>
     <t>date</t>
   </si>
@@ -182,7 +182,7 @@
     <t>direct intersection robustness</t>
   </si>
   <si>
-    <t>latex corrections by wbackfrieder</t>
+    <t>applying latex corrections by wbackfrieder</t>
   </si>
 </sst>
 </file>
@@ -543,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,7 +1756,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D148" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D149" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -3218,6 +3218,24 @@
         <v>0.23958333333333337</v>
       </c>
       <c r="E148" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>42171</v>
+      </c>
+      <c r="B149" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C149" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D149" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E149" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3246,7 +3264,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>16.930555555555557</v>
+        <v>17.076388888888889</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="19845" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="20295" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
   <si>
     <t>date</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>applying latex corrections by wbackfrieder</t>
+  </si>
+  <si>
+    <t>raycasting image by thorsten</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
       <selection activeCell="E155" sqref="E155"/>
@@ -1756,7 +1759,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D149" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D150" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -3237,6 +3240,24 @@
       </c>
       <c r="E149" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>42178</v>
+      </c>
+      <c r="B150" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C150" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D150" s="3">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3264,7 +3285,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>17.076388888888889</v>
+        <v>17.138888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="20745" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
   <si>
     <t>date</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>raycasting image by thorsten</t>
+  </si>
+  <si>
+    <t>integrated Geometric Tools Library for direct intersection</t>
+  </si>
+  <si>
+    <t>stabilizing direct intersection</t>
+  </si>
+  <si>
+    <t>rewriting direct intersection to operate per cell</t>
   </si>
 </sst>
 </file>
@@ -546,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1768,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D150" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D154" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -3258,6 +3267,78 @@
       </c>
       <c r="E150" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>42181</v>
+      </c>
+      <c r="B151" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C151" s="5">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D151" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="E151" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>42184</v>
+      </c>
+      <c r="B152" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C152" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D152" s="3">
+        <f t="shared" si="2"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E152" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>42185</v>
+      </c>
+      <c r="B153" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C153" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D153" s="3">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="E153" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>42185</v>
+      </c>
+      <c r="B154" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="C154" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D154" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="E154" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3285,7 +3366,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>17.138888888888889</v>
+        <v>18.003472222222221</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20745" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="21195" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
   <si>
     <t>date</t>
   </si>
@@ -555,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,7 +1768,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:D154" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D159" si="2">C67-B67</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E67" t="s">
@@ -3339,6 +3339,270 @@
       </c>
       <c r="E154" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B155" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C155" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D155" s="3">
+        <f t="shared" si="2"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>42187</v>
+      </c>
+      <c r="B156" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="C156" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="D156" s="3">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>42190</v>
+      </c>
+      <c r="B157" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C157" s="5">
+        <v>0.1875</v>
+      </c>
+      <c r="D157" s="3">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="E157" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>42190</v>
+      </c>
+      <c r="B158" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C158" s="5">
+        <v>1</v>
+      </c>
+      <c r="D158" s="3">
+        <f t="shared" si="2"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E158" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>42191</v>
+      </c>
+      <c r="B159" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C159" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D159" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11458333333333331</v>
+      </c>
+      <c r="E159" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>42191</v>
+      </c>
+      <c r="B160" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C160" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D160" s="3">
+        <f t="shared" ref="D160:D178" si="3">C160-B160</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E160" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>42192</v>
+      </c>
+      <c r="B161" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C161" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D161" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E161" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>42192</v>
+      </c>
+      <c r="B162" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C162" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D162" s="3">
+        <f t="shared" si="3"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E162" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>42193</v>
+      </c>
+      <c r="B163" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C163" s="5">
+        <v>1</v>
+      </c>
+      <c r="D163" s="3">
+        <f t="shared" si="3"/>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="E163" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>42193</v>
+      </c>
+      <c r="B164" s="5">
+        <v>0</v>
+      </c>
+      <c r="C164" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D164" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E164" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D165" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D166" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D167" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D168" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D169" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D170" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D171" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D172" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D173" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D174" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D175" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D176" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3366,7 +3630,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>18.003472222222221</v>
+        <v>19.336805555555554</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="21195" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="21645" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
   <si>
     <t>date</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>rewriting direct intersection to operate per cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added implementation details and UML diagram to previous work chapter </t>
+  </si>
+  <si>
+    <t>started with direct intersection chapter</t>
   </si>
 </sst>
 </file>
@@ -3522,15 +3528,39 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>42199</v>
+      </c>
+      <c r="B165" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C165" s="5">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D165" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="E165" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>42199</v>
+      </c>
+      <c r="B166" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C166" s="5">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D166" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.34375</v>
+      </c>
+      <c r="E166" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3630,7 +3660,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>19.336805555555554</v>
+        <v>19.805555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="21645" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="22095" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
   <si>
     <t>date</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>started with direct intersection chapter</t>
+  </si>
+  <si>
+    <t>algorithm for direct intersection concept</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
   <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+      <selection activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3564,9 +3567,21 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>42200</v>
+      </c>
+      <c r="B167" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C167" s="5">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D167" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.21875</v>
+      </c>
+      <c r="E167" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3660,7 +3675,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>19.805555555555554</v>
+        <v>20.024305555555554</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="22095" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="22545" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
   <si>
     <t>date</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>algorithm for direct intersection concept</t>
+  </si>
+  <si>
+    <t>inside test error image</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
   <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170"/>
+      <selection activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3585,9 +3588,21 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>42200</v>
+      </c>
+      <c r="B168" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C168" s="5">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D168" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E168" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3675,7 +3690,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>20.024305555555554</v>
+        <v>20.065972222222221</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="22545" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="22995" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
   <si>
     <t>date</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>inside test error image</t>
+  </si>
+  <si>
+    <t>direct intersection algorithm</t>
+  </si>
+  <si>
+    <t>direct intersection chapter</t>
   </si>
 </sst>
 </file>
@@ -569,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E172" sqref="E172"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,27 +3612,75 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>42201</v>
+      </c>
+      <c r="B169" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C169" s="5">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D169" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="E169" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>42202</v>
+      </c>
+      <c r="B170" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C170" s="5">
+        <v>0.53125</v>
+      </c>
       <c r="D170" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>42202</v>
+      </c>
+      <c r="B171" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C171" s="5">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D171" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E171" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>42202</v>
+      </c>
+      <c r="B172" s="5">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C172" s="5">
+        <v>0.8125</v>
+      </c>
       <c r="D172" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.17708333333333337</v>
+      </c>
+      <c r="E172" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3690,7 +3744,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>20.065972222222221</v>
+        <v>20.451388888888886</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="22995" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="23445" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
   <si>
     <t>date</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>direct intersection chapter</t>
+  </si>
+  <si>
+    <t>triangle intersection section</t>
+  </si>
+  <si>
+    <t>triangle splitting section</t>
+  </si>
+  <si>
+    <t>clipping section</t>
   </si>
 </sst>
 </file>
@@ -573,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E178"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3460,7 +3469,7 @@
         <v>0.75</v>
       </c>
       <c r="D160" s="3">
-        <f t="shared" ref="D160:D178" si="3">C160-B160</f>
+        <f t="shared" ref="D160:D181" si="3">C160-B160</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="E160" t="s">
@@ -3684,39 +3693,165 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>42202</v>
+      </c>
+      <c r="B173" s="5">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C173" s="5">
+        <v>0.9375</v>
+      </c>
       <c r="D173" s="3">
         <f t="shared" si="3"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E173" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>42204</v>
+      </c>
+      <c r="B174" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C174" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D174" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E174" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>42204</v>
+      </c>
+      <c r="B175" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C175" s="5">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="D175" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="E175" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>42205</v>
+      </c>
+      <c r="B176" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C176" s="5">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D176" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E176" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>42205</v>
+      </c>
+      <c r="B177" s="5">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C177" s="5">
+        <v>1</v>
+      </c>
       <c r="D177" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E177" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>42206</v>
+      </c>
+      <c r="B178" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C178" s="5">
+        <v>0.625</v>
+      </c>
       <c r="D178" s="3">
         <f t="shared" si="3"/>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="E178" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>42206</v>
+      </c>
+      <c r="B179" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C179" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D179" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="E179" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>42206</v>
+      </c>
+      <c r="B180" s="5">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C180" s="5">
+        <v>1</v>
+      </c>
+      <c r="D180" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E180" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>42207</v>
+      </c>
+      <c r="B181" s="5">
         <v>0</v>
+      </c>
+      <c r="C181" s="5">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D181" s="3">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E181" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3744,7 +3879,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>20.451388888888886</v>
+        <v>21.253472222222218</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="23445" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="23895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="72">
   <si>
     <t>date</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>clipping section</t>
+  </si>
+  <si>
+    <t>CDT in triangle splitting section</t>
+  </si>
+  <si>
+    <t>triangle inside test section</t>
+  </si>
+  <si>
+    <t>Möller ray-triangle intersection test inside triangle inside test section</t>
   </si>
 </sst>
 </file>
@@ -582,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,7 +3478,7 @@
         <v>0.75</v>
       </c>
       <c r="D160" s="3">
-        <f t="shared" ref="D160:D181" si="3">C160-B160</f>
+        <f t="shared" ref="D160:D185" si="3">C160-B160</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="E160" t="s">
@@ -3797,7 +3806,7 @@
         <v>0.14583333333333331</v>
       </c>
       <c r="E178" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3851,7 +3860,79 @@
         <v>3.125E-2</v>
       </c>
       <c r="E181" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>42207</v>
+      </c>
+      <c r="B182" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C182" s="5">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="D182" s="3">
+        <f t="shared" si="3"/>
+        <v>0.24305555555555558</v>
+      </c>
+      <c r="E182" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>42208</v>
+      </c>
+      <c r="B183" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C183" s="5">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D183" s="3">
+        <f t="shared" si="3"/>
+        <v>9.027777777777779E-2</v>
+      </c>
+      <c r="E183" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>42208</v>
+      </c>
+      <c r="B184" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C184" s="5">
+        <v>1</v>
+      </c>
+      <c r="D184" s="3">
+        <f t="shared" si="3"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E184" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>42209</v>
+      </c>
+      <c r="B185" s="5">
+        <v>0</v>
+      </c>
+      <c r="C185" s="5">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D185" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E185" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3879,7 +3960,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>21.253472222222218</v>
+        <v>21.732638888888889</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="23895" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="24345" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
   <si>
     <t>date</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Möller ray-triangle intersection test inside triangle inside test section</t>
+  </si>
+  <si>
+    <t>numerics section</t>
   </si>
 </sst>
 </file>
@@ -591,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,7 +3481,7 @@
         <v>0.75</v>
       </c>
       <c r="D160" s="3">
-        <f t="shared" ref="D160:D185" si="3">C160-B160</f>
+        <f t="shared" ref="D160:D187" si="3">C160-B160</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="E160" t="s">
@@ -3933,6 +3936,42 @@
       </c>
       <c r="E185" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>42209</v>
+      </c>
+      <c r="B186" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C186" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D186" s="3">
+        <f t="shared" si="3"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E186" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>42209</v>
+      </c>
+      <c r="B187" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C187" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D187" s="3">
+        <f t="shared" si="3"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E187" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3960,7 +3999,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>21.732638888888889</v>
+        <v>21.847222222222221</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="24345" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="24795" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
   <si>
     <t>date</t>
   </si>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E195" sqref="E195"/>
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,7 +3481,7 @@
         <v>0.75</v>
       </c>
       <c r="D160" s="3">
-        <f t="shared" ref="D160:D187" si="3">C160-B160</f>
+        <f t="shared" ref="D160:D188" si="3">C160-B160</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="E160" t="s">
@@ -3971,6 +3971,24 @@
         <v>9.375E-2</v>
       </c>
       <c r="E187" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>42211</v>
+      </c>
+      <c r="B188" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C188" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D188" s="3">
+        <f t="shared" si="3"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E188" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3999,7 +4017,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>21.847222222222221</v>
+        <v>22.055555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="24795" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="25245" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="74">
   <si>
     <t>date</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>numerics section</t>
+  </si>
+  <si>
+    <t>parallelization section</t>
   </si>
 </sst>
 </file>
@@ -594,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+      <selection activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,7 +3484,7 @@
         <v>0.75</v>
       </c>
       <c r="D160" s="3">
-        <f t="shared" ref="D160:D188" si="3">C160-B160</f>
+        <f t="shared" ref="D160:D190" si="3">C160-B160</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="E160" t="s">
@@ -3990,6 +3993,42 @@
       </c>
       <c r="E188" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>42212</v>
+      </c>
+      <c r="B189" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C189" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D189" s="3">
+        <f t="shared" si="3"/>
+        <v>9.3749999999999944E-2</v>
+      </c>
+      <c r="E189" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>42212</v>
+      </c>
+      <c r="B190" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C190" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D190" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="E190" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4017,7 +4056,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>22.055555555555554</v>
+        <v>22.263888888888886</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="25245" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="25695" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="79">
   <si>
     <t>date</t>
   </si>
@@ -237,6 +237,21 @@
   </si>
   <si>
     <t>parallelization section</t>
+  </si>
+  <si>
+    <t>renderings of selected test scenes</t>
+  </si>
+  <si>
+    <t>added benchmark project for extraction routines, parallelized direct intersection</t>
+  </si>
+  <si>
+    <t>histograms of test scenes</t>
+  </si>
+  <si>
+    <t>renderToFile API to create renderings of test scenes</t>
+  </si>
+  <si>
+    <t>describing test scenes</t>
   </si>
 </sst>
 </file>
@@ -597,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3484,7 +3499,7 @@
         <v>0.75</v>
       </c>
       <c r="D160" s="3">
-        <f t="shared" ref="D160:D190" si="3">C160-B160</f>
+        <f t="shared" ref="D160:D223" si="3">C160-B160</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="E160" t="s">
@@ -4029,6 +4044,564 @@
       </c>
       <c r="E190" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>42213</v>
+      </c>
+      <c r="B191" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C191" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D191" s="3">
+        <f t="shared" si="3"/>
+        <v>7.2916666666666685E-2</v>
+      </c>
+      <c r="E191" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>42213</v>
+      </c>
+      <c r="B192" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C192" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D192" s="3">
+        <f t="shared" si="3"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E192" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>42213</v>
+      </c>
+      <c r="B193" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="C193" s="5">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D193" s="3">
+        <f t="shared" si="3"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E193" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>42213</v>
+      </c>
+      <c r="B194" s="5">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C194" s="5">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D194" s="3">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E194" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>42214</v>
+      </c>
+      <c r="B195" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C195" s="5">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D195" s="3">
+        <f t="shared" si="3"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>42219</v>
+      </c>
+      <c r="B196" s="5">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C196" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D196" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15277777777777773</v>
+      </c>
+      <c r="E196" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>42219</v>
+      </c>
+      <c r="B197" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C197" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D197" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E197" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>42220</v>
+      </c>
+      <c r="B198" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C198" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D198" s="3">
+        <f t="shared" si="3"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E198" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>42220</v>
+      </c>
+      <c r="B199" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C199" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D199" s="3">
+        <f t="shared" si="3"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E199" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>42221</v>
+      </c>
+      <c r="B200" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C200" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D200" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E200" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>42221</v>
+      </c>
+      <c r="B201" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C201" s="5">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D201" s="3">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E201" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>42222</v>
+      </c>
+      <c r="B202" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C202" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D202" s="3">
+        <f t="shared" si="3"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E202" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>42222</v>
+      </c>
+      <c r="B203" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C203" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D203" s="3">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E203" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D204" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D205" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D206" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D207" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D208" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224" s="3">
+        <f t="shared" ref="D224:D257" si="4">C224-B224</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D232" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D233" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D234" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D235" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D236" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D237" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D238" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D239" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D240" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D241" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D243" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D244" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D247" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D248" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D249" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D252" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D253" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D254" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D255" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D256" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4056,7 +4629,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>22.263888888888886</v>
+        <v>23.454861111111104</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
   <si>
     <t>date</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>describing test scenes</t>
+  </si>
+  <si>
+    <t>profiling direct intersection</t>
+  </si>
+  <si>
+    <t>renderings of direct intersection results, continuing results sections</t>
   </si>
 </sst>
 </file>
@@ -615,7 +621,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="E206" sqref="E206"/>
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4281,15 +4287,39 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>42240</v>
+      </c>
+      <c r="B204" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C204" s="5">
+        <v>0.8125</v>
+      </c>
       <c r="D204" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E204" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>42241</v>
+      </c>
+      <c r="B205" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C205" s="5">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D205" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="E205" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4629,7 +4659,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>23.454861111111104</v>
+        <v>23.809027777777771</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="25695" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="26295" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
   <si>
     <t>date</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>renderings of direct intersection results, continuing results sections</t>
+  </si>
+  <si>
+    <t>finishing results section</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4323,9 +4326,21 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>42242</v>
+      </c>
+      <c r="B206" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C206" s="5">
+        <v>0.76041666666666663</v>
+      </c>
       <c r="D206" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="E206" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4659,7 +4674,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>23.809027777777771</v>
+        <v>24.017361111111104</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="26295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="26895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
   <si>
     <t>date</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>finishing results section</t>
+  </si>
+  <si>
+    <t>optimizing image floating and edited some images</t>
+  </si>
+  <si>
+    <t>began proofreading direct intersection</t>
   </si>
 </sst>
 </file>
@@ -624,7 +630,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4344,15 +4350,39 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>42247</v>
+      </c>
+      <c r="B207" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C207" s="5">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D207" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E207" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B208" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C208" s="5">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="D208" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="E208" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.25">
@@ -4674,7 +4704,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>24.017361111111104</v>
+        <v>24.173611111111104</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="26895" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="27495" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
   <si>
     <t>date</t>
   </si>
@@ -266,7 +266,7 @@
     <t>optimizing image floating and edited some images</t>
   </si>
   <si>
-    <t>began proofreading direct intersection</t>
+    <t>proofreading direct intersection</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+      <selection activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4385,97 +4385,121 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>42249</v>
+      </c>
+      <c r="B209" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C209" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="D209" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+        <v>0.11458333333333331</v>
+      </c>
+      <c r="E209" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>42249</v>
+      </c>
+      <c r="B210" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="C210" s="5">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="D210" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E210" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D211" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D212" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D213" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D214" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D215" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D216" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D217" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D218" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D219" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D220" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D221" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D222" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D223" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D224" s="3">
         <f t="shared" ref="D224:D257" si="4">C224-B224</f>
         <v>0</v>
@@ -4704,7 +4728,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>24.173611111111104</v>
+        <v>24.329861111111104</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="27495" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="28095" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
   <si>
     <t>date</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>proofreading direct intersection</t>
+  </si>
+  <si>
+    <t>proofreading whole thesis using MS Word, releasing to wbackfrieder</t>
   </si>
 </sst>
 </file>
@@ -629,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="E216" sqref="E216"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4422,9 +4425,21 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>42254</v>
+      </c>
+      <c r="B211" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C211" s="5">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D211" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1875</v>
+      </c>
+      <c r="E211" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4728,7 +4743,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>24.329861111111104</v>
+        <v>24.517361111111104</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="28095" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="28695" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="87">
   <si>
     <t>date</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>proofreading whole thesis using MS Word, releasing to wbackfrieder</t>
+  </si>
+  <si>
+    <t>reading into tridexel code again</t>
+  </si>
+  <si>
+    <t>debugging, profiling and optimizing tridexel code</t>
   </si>
 </sst>
 </file>
@@ -633,7 +639,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="E215" sqref="E215"/>
+      <selection activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4443,15 +4449,39 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>42280</v>
+      </c>
+      <c r="B212" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C212" s="5">
+        <v>0.75</v>
+      </c>
       <c r="D212" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="E212" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>42282</v>
+      </c>
+      <c r="B213" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C213" s="5">
+        <v>0.88541666666666663</v>
+      </c>
       <c r="D213" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.30208333333333326</v>
+      </c>
+      <c r="E213" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4743,7 +4773,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>24.517361111111104</v>
+        <v>24.944444444444436</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="28695" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="29295" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="89">
   <si>
     <t>date</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>debugging, profiling and optimizing tridexel code</t>
+  </si>
+  <si>
+    <t>profiling and optimizing tridexel code</t>
+  </si>
+  <si>
+    <t>fixing and stabilizing tridexel and raycast</t>
   </si>
 </sst>
 </file>
@@ -638,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="E214" sqref="E214"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4485,27 +4491,75 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>42283</v>
+      </c>
+      <c r="B214" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C214" s="5">
+        <v>0.625</v>
+      </c>
       <c r="D214" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E214" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>42283</v>
+      </c>
+      <c r="B215" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C215" s="5">
+        <v>0.75</v>
+      </c>
       <c r="D215" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E215" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>42284</v>
+      </c>
+      <c r="B216" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C216" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="D216" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="E216" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>42284</v>
+      </c>
+      <c r="B217" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C217" s="5">
+        <v>0.85069444444444453</v>
+      </c>
       <c r="D217" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.29861111111111116</v>
+      </c>
+      <c r="E217" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4773,7 +4827,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>24.944444444444436</v>
+        <v>25.461805555555546</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="29295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="29895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="91">
   <si>
     <t>date</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>fixing and stabilizing tridexel and raycast</t>
+  </si>
+  <si>
+    <t>tridexel loop filtering and special case handling, raycast robustness</t>
+  </si>
+  <si>
+    <t>tridexel loop special cases</t>
   </si>
 </sst>
 </file>
@@ -645,7 +651,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="E217" sqref="E217"/>
+      <selection activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4563,15 +4569,39 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>42285</v>
+      </c>
+      <c r="B218" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C218" s="5">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D218" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E218" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>42287</v>
+      </c>
+      <c r="B219" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C219" s="5">
+        <v>0.18402777777777779</v>
+      </c>
       <c r="D219" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>C219-B219</f>
+        <v>0.14236111111111113</v>
+      </c>
+      <c r="E219" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4827,7 +4857,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>25.461805555555546</v>
+        <v>25.770833333333325</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="29895" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30495" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>date</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>tridexel loop special cases</t>
+  </si>
+  <si>
+    <t>tridexel introduction and concept section</t>
   </si>
 </sst>
 </file>
@@ -650,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="E221" sqref="E221"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4605,15 +4608,39 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>42289</v>
+      </c>
+      <c r="B220" s="5">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C220" s="5">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D220" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="E220" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>42289</v>
+      </c>
+      <c r="B221" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C221" s="5">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="D221" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.26041666666666663</v>
+      </c>
+      <c r="E221" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -4857,7 +4884,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>25.770833333333325</v>
+        <v>26.173611111111104</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30495" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="31095" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="93">
   <si>
     <t>date</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>tridexel introduction and concept section</t>
+  </si>
+  <si>
+    <t>tridexel implementation introduction and graphics</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="E224" sqref="E224"/>
+      <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4644,15 +4647,39 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>42290</v>
+      </c>
+      <c r="B222" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C222" s="5">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D222" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E222" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>42290</v>
+      </c>
+      <c r="B223" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C223" s="5">
+        <v>0.72222222222222221</v>
+      </c>
       <c r="D223" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.17013888888888884</v>
+      </c>
+      <c r="E223" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4884,7 +4911,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>26.173611111111104</v>
+        <v>26.489583333333325</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="31095" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="31695" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="94">
   <si>
     <t>date</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>tridexel implementation introduction and graphics</t>
+  </si>
+  <si>
+    <t>tridexel raycast section</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="E226" sqref="E226"/>
+      <selection activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4683,9 +4686,21 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>42290</v>
+      </c>
+      <c r="B224" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C224" s="5">
+        <v>0.75</v>
+      </c>
       <c r="D224" s="3">
         <f t="shared" ref="D224:D257" si="4">C224-B224</f>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E224" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.25">
@@ -4911,7 +4926,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>26.489583333333325</v>
+        <v>26.517361111111104</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="31695" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="32295" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
   <si>
     <t>date</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>tridexel raycast section</t>
+  </si>
+  <si>
+    <t>tridexel raycast and dexel grid creation section</t>
   </si>
 </sst>
 </file>
@@ -4703,97 +4706,109 @@
         <v>93</v>
       </c>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>42291</v>
+      </c>
+      <c r="B225" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C225" s="5">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D225" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+        <v>0.29166666666666674</v>
+      </c>
+      <c r="E225" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D226" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D227" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D228" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D229" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D230" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D231" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D232" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D233" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D234" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D235" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D236" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D237" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D238" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D239" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D240" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4926,7 +4941,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>26.517361111111104</v>
+        <v>26.809027777777771</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="32295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="32895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="98">
   <si>
     <t>date</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>tridexel raycast and dexel grid creation section</t>
+  </si>
+  <si>
+    <t>dexel grid creation section</t>
+  </si>
+  <si>
+    <t>dexel grid creation and regularization section</t>
+  </si>
+  <si>
+    <t>edge and vertex id tables</t>
   </si>
 </sst>
 </file>
@@ -662,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="E228" sqref="E228"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4725,21 +4734,57 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>42292</v>
+      </c>
+      <c r="B226" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C226" s="5">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="D226" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.11458333333333331</v>
+      </c>
+      <c r="E226" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>42292</v>
+      </c>
+      <c r="B227" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C227" s="5">
+        <v>0.88541666666666663</v>
+      </c>
       <c r="D227" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.36458333333333326</v>
+      </c>
+      <c r="E227" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>42292</v>
+      </c>
+      <c r="B228" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C228" s="5">
+        <v>0.9375</v>
+      </c>
       <c r="D228" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E228" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4941,7 +4986,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>26.809027777777771</v>
+        <v>27.309027777777768</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="32895" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="33495" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
   <si>
     <t>date</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>edge and vertex id tables</t>
+  </si>
+  <si>
+    <t>regularization section</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="E230" sqref="E230"/>
+      <selection activeCell="E233" sqref="E233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4788,15 +4791,39 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>42293</v>
+      </c>
+      <c r="B229" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C229" s="5">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="D229" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E229" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>42294</v>
+      </c>
+      <c r="B230" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C230" s="5">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="D230" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E230" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -4986,7 +5013,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>27.309027777777768</v>
+        <v>27.413194444444436</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="33495" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="34095" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="101">
   <si>
     <t>date</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>regularization section</t>
+  </si>
+  <si>
+    <t>triangulation section</t>
+  </si>
+  <si>
+    <t>triangulation and refinement section</t>
   </si>
 </sst>
 </file>
@@ -675,7 +681,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="E233" sqref="E233"/>
+      <selection activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4827,15 +4833,39 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>42296</v>
+      </c>
+      <c r="B231" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C231" s="5">
+        <v>0.5</v>
+      </c>
       <c r="D231" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E231" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>42296</v>
+      </c>
+      <c r="B232" s="5">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C232" s="5">
+        <v>0.82638888888888884</v>
+      </c>
       <c r="D232" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.27083333333333326</v>
+      </c>
+      <c r="E232" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5013,7 +5043,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>27.413194444444436</v>
+        <v>27.788194444444436</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="34095" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="34695" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="102">
   <si>
     <t>date</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>triangulation and refinement section</t>
+  </si>
+  <si>
+    <t>refinement section</t>
   </si>
 </sst>
 </file>
@@ -4869,15 +4872,39 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>42297</v>
+      </c>
+      <c r="B233" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C233" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="D233" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="E233" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>42297</v>
+      </c>
+      <c r="B234" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C234" s="5">
+        <v>0.63888888888888895</v>
+      </c>
       <c r="D234" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9.7222222222222321E-2</v>
+      </c>
+      <c r="E234" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5043,7 +5070,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>27.788194444444436</v>
+        <v>28.031249999999989</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="34695" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="35295" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="102">
   <si>
     <t>date</t>
   </si>
@@ -4908,9 +4908,21 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>42298</v>
+      </c>
+      <c r="B235" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C235" s="5">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="D235" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.17708333333333337</v>
+      </c>
+      <c r="E235" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5070,7 +5082,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>28.031249999999989</v>
+        <v>28.208333333333321</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="35295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="35895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="104">
   <si>
     <t>date</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>refinement section</t>
+  </si>
+  <si>
+    <t>reviewing algorithms in tri dexel section</t>
+  </si>
+  <si>
+    <t>improving tri dexel sub slicing</t>
   </si>
 </sst>
 </file>
@@ -684,7 +690,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="E237" sqref="E237"/>
+      <selection activeCell="E241" sqref="E241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4926,21 +4932,57 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>42299</v>
+      </c>
+      <c r="B236" s="5">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C236" s="5">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D236" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.15972222222222232</v>
+      </c>
+      <c r="E236" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>42299</v>
+      </c>
+      <c r="B237" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C237" s="5">
+        <v>0.75</v>
+      </c>
       <c r="D237" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="D237" si="5">C237-B237</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E237" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>42299</v>
+      </c>
+      <c r="B238" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C238" s="5">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D238" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E238" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5082,7 +5124,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>28.208333333333321</v>
+        <v>28.513888888888879</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="35895" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="36495" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="105">
   <si>
     <t>date</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>improving tri dexel sub slicing</t>
+  </si>
+  <si>
+    <t>improving tri dexel sub slicing, CTM mesh writing</t>
   </si>
 </sst>
 </file>
@@ -4986,9 +4989,21 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>42300</v>
+      </c>
+      <c r="B239" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C239" s="5">
+        <v>0.75</v>
+      </c>
       <c r="D239" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E239" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5124,7 +5139,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>28.513888888888879</v>
+        <v>28.680555555555546</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="36495" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="37095" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="107">
   <si>
     <t>date</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>improving tri dexel sub slicing, CTM mesh writing</t>
+  </si>
+  <si>
+    <t>debugging tri dexel sub slicing</t>
+  </si>
+  <si>
+    <t>writing cell slicing section</t>
   </si>
 </sst>
 </file>
@@ -692,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="E241" sqref="E241"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="E245" sqref="E245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5007,102 +5013,150 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>42302</v>
+      </c>
+      <c r="B240" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="C240" s="5">
+        <v>1</v>
+      </c>
       <c r="D240" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E240" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>42303</v>
+      </c>
+      <c r="B241" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C241" s="5">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D241" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E241" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>42304</v>
+      </c>
+      <c r="B242" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C242" s="5">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D242" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+        <v>6.2500000000000056E-2</v>
+      </c>
+      <c r="E242" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>42304</v>
+      </c>
+      <c r="B243" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C243" s="5">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D243" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+        <v>0.14236111111111116</v>
+      </c>
+      <c r="E243" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D244" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D245" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D246" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D247" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D248" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D249" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D250" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D251" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D252" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D253" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D254" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D255" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D256" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5139,7 +5193,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>28.680555555555546</v>
+        <v>28.989583333333325</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="37095" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="37695" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="107">
   <si>
     <t>date</t>
   </si>
@@ -5085,9 +5085,21 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>42305</v>
+      </c>
+      <c r="B244" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C244" s="5">
+        <v>0.71875</v>
+      </c>
       <c r="D244" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E244" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -5193,7 +5205,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>28.989583333333325</v>
+        <v>29.260416666666657</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="37695" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="38295" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="108">
   <si>
     <t>date</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>writing cell slicing section</t>
+  </si>
+  <si>
+    <t>beagn parallelization section</t>
   </si>
 </sst>
 </file>
@@ -5103,9 +5106,21 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>42305</v>
+      </c>
+      <c r="B245" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="C245" s="5">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="D245" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E245" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -5205,7 +5220,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>29.260416666666657</v>
+        <v>29.281249999999989</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="38295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="38895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="111">
   <si>
     <t>date</t>
   </si>
@@ -338,7 +338,16 @@
     <t>writing cell slicing section</t>
   </si>
   <si>
-    <t>beagn parallelization section</t>
+    <t>began parallelization section</t>
+  </si>
+  <si>
+    <t>finished parallelization section</t>
+  </si>
+  <si>
+    <t>writing result section, benchmarking, profiling</t>
+  </si>
+  <si>
+    <t>renderings of result meshes</t>
   </si>
 </sst>
 </file>
@@ -702,7 +711,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="E245" sqref="E245"/>
+      <selection activeCell="E257" sqref="E257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5124,21 +5133,57 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>42306</v>
+      </c>
+      <c r="B246" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C246" s="5">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="D246" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="E246" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>42306</v>
+      </c>
+      <c r="B247" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C247" s="5">
+        <v>0.875</v>
+      </c>
       <c r="D247" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="E247" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>42306</v>
+      </c>
+      <c r="B248" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C248" s="5">
+        <v>0.97569444444444453</v>
+      </c>
       <c r="D248" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.9027777777777901E-2</v>
+      </c>
+      <c r="E248" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -5220,7 +5265,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>29.281249999999989</v>
+        <v>29.767361111111104</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="38895" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="39495" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="113">
   <si>
     <t>date</t>
   </si>
@@ -344,10 +344,16 @@
     <t>finished parallelization section</t>
   </si>
   <si>
-    <t>writing result section, benchmarking, profiling</t>
-  </si>
-  <si>
     <t>renderings of result meshes</t>
+  </si>
+  <si>
+    <t>writing results section</t>
+  </si>
+  <si>
+    <t>writing results section, benchmarking, profiling</t>
+  </si>
+  <si>
+    <t>fine tuning algorithmis</t>
   </si>
 </sst>
 </file>
@@ -711,7 +717,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="E257" sqref="E257"/>
+      <selection activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5165,7 +5171,7 @@
         <v>0.35416666666666663</v>
       </c>
       <c r="E247" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -5183,25 +5189,61 @@
         <v>5.9027777777777901E-2</v>
       </c>
       <c r="E248" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>42308</v>
+      </c>
+      <c r="B249" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C249" s="5">
+        <v>1</v>
+      </c>
       <c r="D249" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="E249" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B250" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C250" s="5">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D250" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.1875</v>
+      </c>
+      <c r="E250" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B251" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="C251" s="5">
+        <v>1</v>
+      </c>
       <c r="D251" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="E251" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -5265,7 +5307,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>29.767361111111104</v>
+        <v>30.329861111111104</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="39495" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="40095" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="114">
   <si>
     <t>date</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>fine tuning algorithmis</t>
+  </si>
+  <si>
+    <t>proof-reading tri dexel chapter</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="E255" sqref="E255"/>
+      <selection activeCell="E252" sqref="E252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,15 +5250,39 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>42310</v>
+      </c>
+      <c r="B252" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C252" s="5">
+        <v>0.82638888888888884</v>
+      </c>
       <c r="D252" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="E252" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>42311</v>
+      </c>
+      <c r="B253" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C253" s="5">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D253" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.22916666666666674</v>
+      </c>
+      <c r="E253" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -5307,7 +5334,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>30.329861111111104</v>
+        <v>30.843749999999993</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="40095" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="40695" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="116">
   <si>
     <t>date</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>proof-reading tri dexel chapter</t>
+  </si>
+  <si>
+    <t>proof-reading tri dexel chapter, boundary edge discussion in tri dexel and direct intersection, feature extraction images</t>
+  </si>
+  <si>
+    <t>wbackfrieder mail</t>
   </si>
 </sst>
 </file>
@@ -719,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="E252" sqref="E252"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +735,7 @@
     <col min="2" max="2" width="9.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.7109375" customWidth="1"/>
+    <col min="5" max="5" width="173.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5286,15 +5292,39 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>42312</v>
+      </c>
+      <c r="B254" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C254" s="5">
+        <v>0.875</v>
+      </c>
       <c r="D254" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.32291666666666663</v>
+      </c>
+      <c r="E254" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>42312</v>
+      </c>
+      <c r="B255" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="C255" s="5">
+        <v>0.90972222222222221</v>
+      </c>
       <c r="D255" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="E255" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -5334,7 +5364,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>30.843749999999993</v>
+        <v>31.201388888888882</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="40695" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="41295" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="117">
   <si>
     <t>date</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>wbackfrieder mail</t>
+  </si>
+  <si>
+    <t>began point cloud based chapter</t>
   </si>
 </sst>
 </file>
@@ -726,7 +729,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="C260" sqref="C260"/>
+      <selection activeCell="E257" sqref="E257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5328,9 +5331,21 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>42314</v>
+      </c>
+      <c r="B256" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C256" s="5">
+        <v>0.875</v>
+      </c>
       <c r="D256" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="E256" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.25">
@@ -5364,7 +5379,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>31.201388888888882</v>
+        <v>31.43055555555555</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="41295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="41895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="118">
   <si>
     <t>date</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>began point cloud based chapter</t>
+  </si>
+  <si>
+    <t>point cloud based chapter</t>
   </si>
 </sst>
 </file>
@@ -729,7 +732,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="E257" sqref="E257"/>
+      <selection activeCell="E258" sqref="E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5348,10 +5351,22 @@
         <v>116</v>
       </c>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>42316</v>
+      </c>
+      <c r="B257" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C257" s="5">
+        <v>1</v>
+      </c>
       <c r="D257" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E257" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5379,7 +5394,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>31.43055555555555</v>
+        <v>31.513888888888882</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="41895" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="42495" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="119">
   <si>
     <t>date</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>point cloud based chapter</t>
+  </si>
+  <si>
+    <t>experimenting with MeshLab reconstruction filters, fixing OpenCTM library</t>
   </si>
 </sst>
 </file>
@@ -729,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E257"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="E258" sqref="E258"/>
+      <selection activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4768,7 +4771,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D257" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D259" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5367,6 +5370,42 @@
       </c>
       <c r="E257" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>42317</v>
+      </c>
+      <c r="B258" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C258" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D258" s="3">
+        <f t="shared" si="4"/>
+        <v>0.13541666666666663</v>
+      </c>
+      <c r="E258" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>42317</v>
+      </c>
+      <c r="B259" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C259" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D259" s="3">
+        <f t="shared" si="4"/>
+        <v>0.19791666666666663</v>
+      </c>
+      <c r="E259" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5394,7 +5433,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>31.513888888888882</v>
+        <v>31.847222222222218</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="42495" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="43095" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="120">
   <si>
     <t>date</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>experimenting with MeshLab reconstruction filters, fixing OpenCTM library</t>
+  </si>
+  <si>
+    <t>point cloud based chapter, trying to get powercrust running</t>
   </si>
 </sst>
 </file>
@@ -732,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="E260" sqref="E260"/>
+      <selection activeCell="E259" sqref="E259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4771,7 +4774,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D259" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D260" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5406,6 +5409,24 @@
       </c>
       <c r="E259" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>42318</v>
+      </c>
+      <c r="B260" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C260" s="5">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D260" s="3">
+        <f t="shared" si="4"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E260" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5433,7 +5454,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>31.847222222222218</v>
+        <v>32.034722222222214</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="43095" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="43695" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="122">
   <si>
     <t>date</t>
   </si>
@@ -374,7 +374,13 @@
     <t>experimenting with MeshLab reconstruction filters, fixing OpenCTM library</t>
   </si>
   <si>
-    <t>point cloud based chapter, trying to get powercrust running</t>
+    <t>point cloud based chapter, alpha shape, trying to get powercrust running</t>
+  </si>
+  <si>
+    <t>point cloud based chapter, bpa</t>
+  </si>
+  <si>
+    <t>point cloud based chapter, poisson, started results section</t>
   </si>
 </sst>
 </file>
@@ -735,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="E259" sqref="E259"/>
+      <selection activeCell="E264" sqref="E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4774,7 +4780,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D260" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D261" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5390,7 +5396,7 @@
         <v>0.13541666666666663</v>
       </c>
       <c r="E258" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -5427,6 +5433,24 @@
       </c>
       <c r="E260" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>42319</v>
+      </c>
+      <c r="B261" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="C261" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D261" s="3">
+        <f t="shared" si="4"/>
+        <v>0.13541666666666663</v>
+      </c>
+      <c r="E261" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5454,7 +5478,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>32.034722222222214</v>
+        <v>32.170138888888879</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="43695" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="44295" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="123">
   <si>
     <t>date</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>point cloud based chapter, poisson, started results section</t>
+  </si>
+  <si>
+    <t>benchmarking point cloud creation</t>
   </si>
 </sst>
 </file>
@@ -741,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="E264" sqref="E264"/>
+      <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4780,7 +4783,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D261" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D262" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5451,6 +5454,24 @@
       </c>
       <c r="E261" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>42319</v>
+      </c>
+      <c r="B262" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C262" s="5">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D262" s="3">
+        <f t="shared" si="4"/>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E262" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5478,7 +5499,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>32.170138888888879</v>
+        <v>32.315972222222214</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="44295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="44895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="125">
   <si>
     <t>date</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>benchmarking point cloud creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">point cloud based results section, BPA timings, BPA renderings, </t>
+  </si>
+  <si>
+    <t>BPA, Poisson, Alpha shapes graphics</t>
   </si>
 </sst>
 </file>
@@ -744,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E262"/>
+  <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="E244" sqref="E244"/>
+      <selection activeCell="E262" sqref="E262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4783,7 +4789,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D262" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D264" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5472,6 +5478,42 @@
       </c>
       <c r="E262" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>42320</v>
+      </c>
+      <c r="B263" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="C263" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="D263" s="3">
+        <f t="shared" si="4"/>
+        <v>0.28125</v>
+      </c>
+      <c r="E263" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>42320</v>
+      </c>
+      <c r="B264" s="5">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C264" s="5">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="D264" s="3">
+        <f t="shared" si="4"/>
+        <v>0.13194444444444453</v>
+      </c>
+      <c r="E264" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5499,7 +5541,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>32.315972222222214</v>
+        <v>32.729166666666657</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="44895" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="45495" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="126">
   <si>
     <t>date</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>BPA, Poisson, Alpha shapes graphics</t>
+  </si>
+  <si>
+    <t>further detail renderings and description of BPA results</t>
   </si>
 </sst>
 </file>
@@ -750,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E264"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="E262" sqref="E262"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4789,7 +4792,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D264" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D265" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5514,6 +5517,24 @@
       </c>
       <c r="E264" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>42321</v>
+      </c>
+      <c r="B265" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C265" s="5">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D265" s="3">
+        <f t="shared" si="4"/>
+        <v>0.2152777777777779</v>
+      </c>
+      <c r="E265" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5541,7 +5562,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>32.729166666666657</v>
+        <v>32.944444444444436</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45495" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="46095" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
   <si>
     <t>date</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>further detail renderings and description of BPA results</t>
+  </si>
+  <si>
+    <t>poisson renderings</t>
+  </si>
+  <si>
+    <t>finishing point cloud based chapter</t>
   </si>
 </sst>
 </file>
@@ -753,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E265"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="E270" sqref="E270"/>
+      <selection activeCell="E275" sqref="E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4792,7 +4798,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D265" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D267" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5535,6 +5541,42 @@
       </c>
       <c r="E265" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
+        <v>42323</v>
+      </c>
+      <c r="B266" s="5">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C266" s="5">
+        <v>1</v>
+      </c>
+      <c r="D266" s="3">
+        <f t="shared" si="4"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E266" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
+        <v>42324</v>
+      </c>
+      <c r="B267" s="5">
+        <v>0</v>
+      </c>
+      <c r="C267" s="5">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D267" s="3">
+        <f t="shared" si="4"/>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E267" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5562,7 +5604,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>32.944444444444436</v>
+        <v>33.194444444444436</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="46095" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="46695" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="129">
   <si>
     <t>date</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>finishing point cloud based chapter</t>
+  </si>
+  <si>
+    <t>proof-reading point cloud based chapter, wbackfrieder mail</t>
   </si>
 </sst>
 </file>
@@ -759,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E267"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="E275" sqref="E275"/>
+      <selection activeCell="E266" sqref="E266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4798,7 +4801,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D267" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D268" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5577,6 +5580,24 @@
       </c>
       <c r="E267" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>42324</v>
+      </c>
+      <c r="B268" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C268" s="5">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D268" s="3">
+        <f t="shared" si="4"/>
+        <v>0.26041666666666663</v>
+      </c>
+      <c r="E268" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5604,7 +5625,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>33.194444444444436</v>
+        <v>33.4548611111111</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="46695" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="47295" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="130">
   <si>
     <t>date</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>proof-reading point cloud based chapter, wbackfrieder mail</t>
+  </si>
+  <si>
+    <t>applying feedback from wbackfrieder</t>
   </si>
 </sst>
 </file>
@@ -762,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E268"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="E266" sqref="E266"/>
+      <selection activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4801,7 +4804,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D268" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D270" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5598,6 +5601,42 @@
       </c>
       <c r="E268" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>42331</v>
+      </c>
+      <c r="B269" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C269" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D269" s="3">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E269" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <v>42331</v>
+      </c>
+      <c r="B270" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C270" s="5">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D270" s="3">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
+      </c>
+      <c r="E270" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5625,7 +5664,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>33.4548611111111</v>
+        <v>33.652777777777764</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="47295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="47895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="130">
   <si>
     <t>date</t>
   </si>
@@ -765,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:E272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="E273" sqref="E273"/>
+      <selection activeCell="E275" sqref="E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4804,7 +4804,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D270" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D272" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5636,6 +5636,42 @@
         <v>0.15625</v>
       </c>
       <c r="E270" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>42332</v>
+      </c>
+      <c r="B271" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C271" s="5">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D271" s="3">
+        <f t="shared" si="4"/>
+        <v>0.11458333333333331</v>
+      </c>
+      <c r="E271" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>42332</v>
+      </c>
+      <c r="B272" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="C272" s="5">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D272" s="3">
+        <f t="shared" si="4"/>
+        <v>0.22569444444444453</v>
+      </c>
+      <c r="E272" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5664,7 +5700,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>33.652777777777764</v>
+        <v>33.993055555555543</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="47895" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="48495" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
     <sheet name="total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
   <si>
     <t>date</t>
   </si>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -765,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E272"/>
+  <dimension ref="A1:E273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="E275" sqref="E275"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="E276" sqref="E276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4804,7 +4804,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D272" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D273" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5672,6 +5672,24 @@
         <v>0.22569444444444453</v>
       </c>
       <c r="E272" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>42333</v>
+      </c>
+      <c r="B273" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C273" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D273" s="3">
+        <f t="shared" si="4"/>
+        <v>9.3749999999999944E-2</v>
+      </c>
+      <c r="E273" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5700,7 +5718,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>33.993055555555543</v>
+        <v>34.086805555555543</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="48495" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="49095" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
     <sheet name="total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="131">
   <si>
     <t>date</t>
   </si>
@@ -405,12 +405,15 @@
   </si>
   <si>
     <t>applying feedback from wbackfrieder</t>
+  </si>
+  <si>
+    <t>began restructuring result sections</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -765,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="E276" sqref="E276"/>
+      <selection activeCell="E277" sqref="E277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4804,7 +4807,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D273" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D274" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5691,6 +5694,24 @@
       </c>
       <c r="E273" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>42337</v>
+      </c>
+      <c r="B274" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C274" s="5">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D274" s="3">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E274" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5718,7 +5739,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>34.086805555555543</v>
+        <v>34.149305555555543</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="49095" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="49695" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
     <sheet name="total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
   <si>
     <t>date</t>
   </si>
@@ -408,12 +408,15 @@
   </si>
   <si>
     <t>began restructuring result sections</t>
+  </si>
+  <si>
+    <t>separating results and discussion, reprofiling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -768,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
       <selection activeCell="E277" sqref="E277"/>
@@ -4807,7 +4810,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D274" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D275" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5712,6 +5715,24 @@
       </c>
       <c r="E274" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>42338</v>
+      </c>
+      <c r="B275" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C275" s="5">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D275" s="3">
+        <f t="shared" si="4"/>
+        <v>0.28125</v>
+      </c>
+      <c r="E275" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5739,7 +5760,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>34.149305555555543</v>
+        <v>34.430555555555543</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="49695" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="50295" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="133">
   <si>
     <t>date</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>separating results and discussion, reprofiling</t>
+  </si>
+  <si>
+    <t>separating results and discussion, updating profiling charts, reformatting results section</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E276"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
       <selection activeCell="E277" sqref="E277"/>
@@ -4810,7 +4813,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D275" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D276" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5733,6 +5736,24 @@
       </c>
       <c r="E275" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B276" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C276" s="5">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D276" s="3">
+        <f t="shared" si="4"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E276" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5760,7 +5781,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>34.430555555555543</v>
+        <v>34.649305555555543</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="50295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="50895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="134">
   <si>
     <t>date</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>separating results and discussion, updating profiling charts, reformatting results section</t>
+  </si>
+  <si>
+    <t>summary and outlook</t>
   </si>
 </sst>
 </file>
@@ -774,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="E277" sqref="E277"/>
+      <selection activeCell="E281" sqref="E281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4813,7 +4816,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D276" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D277" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5754,6 +5757,24 @@
       </c>
       <c r="E276" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B277" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C277" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D277" s="3">
+        <f t="shared" si="4"/>
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="E277" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5781,7 +5802,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>34.649305555555543</v>
+        <v>34.920138888888879</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="50895" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="51495" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="135">
   <si>
     <t>date</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>summary and outlook</t>
+  </si>
+  <si>
+    <t>acknowledgements, abstract, kurzfassung, formatting</t>
   </si>
 </sst>
 </file>
@@ -777,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E277"/>
+  <dimension ref="A1:E278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="E281" sqref="E281"/>
+      <selection activeCell="E282" sqref="E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4816,7 +4819,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D277" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D278" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5775,6 +5778,24 @@
       </c>
       <c r="E277" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B278" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C278" s="5">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D278" s="3">
+        <f t="shared" si="4"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E278" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5802,7 +5823,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>34.920138888888879</v>
+        <v>35.211805555555543</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="51495" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="52095" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
     <sheet name="total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="136">
   <si>
     <t>date</t>
   </si>
@@ -420,12 +420,15 @@
   </si>
   <si>
     <t>acknowledgements, abstract, kurzfassung, formatting</t>
+  </si>
+  <si>
+    <t>shortcaptions for figures, tables, algorithms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -780,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="E282" sqref="E282"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="E284" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4819,7 +4822,7 @@
         <v>0.75</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" ref="D224:D278" si="4">C224-B224</f>
+        <f t="shared" ref="D224:D279" si="4">C224-B224</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E224" t="s">
@@ -5796,6 +5799,60 @@
       </c>
       <c r="E278" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>42342</v>
+      </c>
+      <c r="B279" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C279" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D279" s="3">
+        <f t="shared" si="4"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E279" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>42343</v>
+      </c>
+      <c r="B280" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C280" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D280" s="3">
+        <f>C280-B280</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E280" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>42344</v>
+      </c>
+      <c r="B281" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C281" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D281" s="3">
+        <f>C281-B281</f>
+        <v>0.10416666666666666</v>
+      </c>
+      <c r="E281" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5823,7 +5880,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>35.211805555555543</v>
+        <v>35.399305555555536</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="52095" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="52695" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="137">
   <si>
     <t>date</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>shortcaptions for figures, tables, algorithms</t>
+  </si>
+  <si>
+    <t>proof-reading</t>
   </si>
 </sst>
 </file>
@@ -783,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E281"/>
+  <dimension ref="A1:E282"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="E284" sqref="E284"/>
+      <selection activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5853,6 +5856,24 @@
       </c>
       <c r="E281" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>42344</v>
+      </c>
+      <c r="B282" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C282" s="5">
+        <v>1</v>
+      </c>
+      <c r="D282" s="3">
+        <f>C282-B282</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E282" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5880,7 +5901,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>35.399305555555536</v>
+        <v>35.4409722222222</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="52695" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="53295" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
     <sheet name="total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="138">
   <si>
     <t>date</t>
   </si>
@@ -426,12 +426,15 @@
   </si>
   <si>
     <t>proof-reading</t>
+  </si>
+  <si>
+    <t>fine tuning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -786,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E282"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
       <selection activeCell="E287" sqref="E287"/>
@@ -5874,6 +5877,42 @@
       </c>
       <c r="E282" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B283" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C283" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D283" s="3">
+        <f>C283-B283</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="E283" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B284" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C284" s="5">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D284" s="3">
+        <f>C284-B284</f>
+        <v>0.17361111111111116</v>
+      </c>
+      <c r="E284" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5901,7 +5940,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>35.4409722222222</v>
+        <v>35.687499999999979</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="53295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="53895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
     <sheet name="total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="139">
   <si>
     <t>date</t>
   </si>
@@ -429,12 +429,15 @@
   </si>
   <si>
     <t>fine tuning</t>
+  </si>
+  <si>
+    <t>fine tuning, shipping alpha build to pfleck</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -789,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="E287" sqref="E287"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="E286" sqref="E286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5913,6 +5916,24 @@
       </c>
       <c r="E284" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B285" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C285" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D285" s="3">
+        <f>C285-B285</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E285" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5940,7 +5961,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>35.687499999999979</v>
+        <v>35.729166666666643</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="53895" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="54495" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="140">
   <si>
     <t>date</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>fine tuning, shipping alpha build to pfleck</t>
+  </si>
+  <si>
+    <t>creating questions for wbackfrieder, releasing first complete version to wbackfrieder</t>
   </si>
 </sst>
 </file>
@@ -792,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="E286" sqref="E286"/>
+      <selection activeCell="E282" sqref="E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5839,7 +5842,7 @@
         <v>0.875</v>
       </c>
       <c r="D280" s="3">
-        <f>C280-B280</f>
+        <f t="shared" ref="D280:D286" si="6">C280-B280</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E280" t="s">
@@ -5857,7 +5860,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D281" s="3">
-        <f>C281-B281</f>
+        <f t="shared" si="6"/>
         <v>0.10416666666666666</v>
       </c>
       <c r="E281" t="s">
@@ -5875,7 +5878,7 @@
         <v>1</v>
       </c>
       <c r="D282" s="3">
-        <f>C282-B282</f>
+        <f t="shared" si="6"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E282" t="s">
@@ -5893,7 +5896,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D283" s="3">
-        <f>C283-B283</f>
+        <f t="shared" si="6"/>
         <v>7.291666666666663E-2</v>
       </c>
       <c r="E283" t="s">
@@ -5911,7 +5914,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="D284" s="3">
-        <f>C284-B284</f>
+        <f t="shared" si="6"/>
         <v>0.17361111111111116</v>
       </c>
       <c r="E284" t="s">
@@ -5929,11 +5932,29 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D285" s="3">
-        <f>C285-B285</f>
+        <f t="shared" si="6"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="E285" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>42347</v>
+      </c>
+      <c r="B286" s="5">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C286" s="5">
+        <v>0.1875</v>
+      </c>
+      <c r="D286" s="3">
+        <f t="shared" si="6"/>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="E286" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5961,7 +5982,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>35.729166666666643</v>
+        <v>35.770833333333307</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="54495" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="55095" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
     <sheet name="total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="141">
   <si>
     <t>date</t>
   </si>
@@ -435,12 +435,15 @@
   </si>
   <si>
     <t>creating questions for wbackfrieder, releasing first complete version to wbackfrieder</t>
+  </si>
+  <si>
+    <t>applying feedback from wbackfrieder, filling in forms for release, releasing to proofreaders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -795,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E286"/>
+  <dimension ref="A1:E288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="E282" sqref="E282"/>
+      <selection activeCell="E289" sqref="E289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5842,7 +5845,7 @@
         <v>0.875</v>
       </c>
       <c r="D280" s="3">
-        <f t="shared" ref="D280:D286" si="6">C280-B280</f>
+        <f t="shared" ref="D280:D288" si="6">C280-B280</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E280" t="s">
@@ -5955,6 +5958,42 @@
       </c>
       <c r="E286" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>42348</v>
+      </c>
+      <c r="B287" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C287" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D287" s="3">
+        <f t="shared" si="6"/>
+        <v>3.1249999999999944E-2</v>
+      </c>
+      <c r="E287" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>42348</v>
+      </c>
+      <c r="B288" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C288" s="5">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D288" s="3">
+        <f t="shared" si="6"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E288" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5982,7 +6021,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>35.770833333333307</v>
+        <v>35.989583333333307</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="55095" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="55695" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
     <sheet name="total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="142">
   <si>
     <t>date</t>
   </si>
@@ -438,12 +438,15 @@
   </si>
   <si>
     <t>applying feedback from wbackfrieder, filling in forms for release, releasing to proofreaders</t>
+  </si>
+  <si>
+    <t>proofreading</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -798,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E288"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="E289" sqref="E289"/>
+      <selection activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5845,7 +5848,7 @@
         <v>0.875</v>
       </c>
       <c r="D280" s="3">
-        <f t="shared" ref="D280:D288" si="6">C280-B280</f>
+        <f t="shared" ref="D280:D289" si="6">C280-B280</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E280" t="s">
@@ -5994,6 +5997,24 @@
       </c>
       <c r="E288" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>42351</v>
+      </c>
+      <c r="B289" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C289" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="D289" s="3">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E289" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6021,7 +6042,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>35.989583333333307</v>
+        <v>36.052083333333307</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="55695" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="56295" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
     <sheet name="total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="142">
   <si>
     <t>date</t>
   </si>
@@ -446,7 +446,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -801,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E289"/>
+  <dimension ref="A1:E292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="E292" sqref="E292"/>
+      <selection activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5848,7 +5848,7 @@
         <v>0.875</v>
       </c>
       <c r="D280" s="3">
-        <f t="shared" ref="D280:D289" si="6">C280-B280</f>
+        <f t="shared" ref="D280:D292" si="6">C280-B280</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E280" t="s">
@@ -6014,6 +6014,60 @@
         <v>6.25E-2</v>
       </c>
       <c r="E289" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>42351</v>
+      </c>
+      <c r="B290" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C290" s="5">
+        <v>1</v>
+      </c>
+      <c r="D290" s="3">
+        <f t="shared" si="6"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E290" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B291" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C291" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D291" s="3">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B292" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="C292" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="D292" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="E292" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6042,7 +6096,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>36.052083333333307</v>
+        <v>36.427083333333307</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="56295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="56895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="143">
   <si>
     <t>date</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>proofreading</t>
+  </si>
+  <si>
+    <t>applying corrections</t>
   </si>
 </sst>
 </file>
@@ -801,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="E294" sqref="E294"/>
+      <selection activeCell="E291" sqref="E291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5848,7 +5851,7 @@
         <v>0.875</v>
       </c>
       <c r="D280" s="3">
-        <f t="shared" ref="D280:D292" si="6">C280-B280</f>
+        <f t="shared" ref="D280:D293" si="6">C280-B280</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E280" t="s">
@@ -6069,6 +6072,24 @@
       </c>
       <c r="E292" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>42353</v>
+      </c>
+      <c r="B293" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C293" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="D293" s="3">
+        <f t="shared" si="6"/>
+        <v>0.17708333333333337</v>
+      </c>
+      <c r="E293" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6096,7 +6117,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>36.427083333333307</v>
+        <v>36.604166666666643</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="56295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="56895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
     <sheet name="total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="143">
   <si>
     <t>date</t>
   </si>
@@ -441,12 +441,15 @@
   </si>
   <si>
     <t>proofreading</t>
+  </si>
+  <si>
+    <t>applying feedback from pfleck</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -801,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="E294" sqref="E294"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6069,6 +6072,23 @@
       </c>
       <c r="E292" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>42354</v>
+      </c>
+      <c r="B293" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C293" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D293" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E293" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6096,7 +6116,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>36.427083333333307</v>
+        <v>36.510416666666643</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="57495" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="58095" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
     <sheet name="total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="145">
   <si>
     <t>date</t>
   </si>
@@ -447,12 +447,15 @@
   </si>
   <si>
     <t>applying feedback from pfleck</t>
+  </si>
+  <si>
+    <t>printing and release</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -807,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E294"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="E291" sqref="E291"/>
+      <selection activeCell="E299" sqref="E299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5854,7 +5857,7 @@
         <v>0.875</v>
       </c>
       <c r="D280" s="3">
-        <f t="shared" ref="D280:D293" si="6">C280-B280</f>
+        <f t="shared" ref="D280:D292" si="6">C280-B280</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E280" t="s">
@@ -6109,6 +6112,23 @@
       </c>
       <c r="E294" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>42354</v>
+      </c>
+      <c r="B295" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C295" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D295" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E295" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6136,7 +6156,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>36.687499999999979</v>
+        <v>36.812499999999979</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="58095" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="58695" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
     <sheet name="total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="146">
   <si>
     <t>date</t>
   </si>
@@ -450,12 +450,15 @@
   </si>
   <si>
     <t>printing and release</t>
+  </si>
+  <si>
+    <t>presentation for final exam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -810,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:E297"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="E299" sqref="E299"/>
+      <selection activeCell="E300" sqref="E300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5857,7 +5860,7 @@
         <v>0.875</v>
       </c>
       <c r="D280" s="3">
-        <f t="shared" ref="D280:D292" si="6">C280-B280</f>
+        <f t="shared" ref="D280:D297" si="6">C280-B280</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E280" t="s">
@@ -6091,7 +6094,8 @@
         <v>0.71875</v>
       </c>
       <c r="D293" s="3">
-        <v>0.17708333333333334</v>
+        <f t="shared" si="6"/>
+        <v>0.17708333333333337</v>
       </c>
       <c r="E293" t="s">
         <v>142</v>
@@ -6108,6 +6112,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D294" s="3">
+        <f t="shared" si="6"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E294" t="s">
@@ -6125,10 +6130,47 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D295" s="3">
-        <v>0.125</v>
+        <f t="shared" si="6"/>
+        <v>0.10416666666666674</v>
       </c>
       <c r="E295" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>42389</v>
+      </c>
+      <c r="B296" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="C296" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D296" s="3">
+        <f t="shared" si="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E296" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>42389</v>
+      </c>
+      <c r="B297" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C297" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="D297" s="3">
+        <f t="shared" si="6"/>
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="E297" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6156,7 +6198,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>36.812499999999979</v>
+        <v>37.093749999999979</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="58695" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="59295" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="146">
   <si>
     <t>date</t>
   </si>
@@ -813,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E297"/>
+  <dimension ref="A1:E298"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="E300" sqref="E300"/>
+      <selection activeCell="E301" sqref="E301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5860,7 +5860,7 @@
         <v>0.875</v>
       </c>
       <c r="D280" s="3">
-        <f t="shared" ref="D280:D297" si="6">C280-B280</f>
+        <f t="shared" ref="D280:D298" si="6">C280-B280</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E280" t="s">
@@ -6170,6 +6170,24 @@
         <v>0.27083333333333337</v>
       </c>
       <c r="E297" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>42390</v>
+      </c>
+      <c r="B298" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C298" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D298" s="3">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E298" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6198,7 +6216,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>37.093749999999979</v>
+        <v>37.156249999999979</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timelog.xlsx
+++ b/documents/timelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="59295" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="59895" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="individuals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="146">
   <si>
     <t>date</t>
   </si>
@@ -813,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E298"/>
+  <dimension ref="A1:E300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="E301" sqref="E301"/>
+      <selection activeCell="E303" sqref="E303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5860,7 +5860,7 @@
         <v>0.875</v>
       </c>
       <c r="D280" s="3">
-        <f t="shared" ref="D280:D298" si="6">C280-B280</f>
+        <f t="shared" ref="D280:D300" si="6">C280-B280</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E280" t="s">
@@ -6188,6 +6188,42 @@
         <v>6.25E-2</v>
       </c>
       <c r="E298" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>42393</v>
+      </c>
+      <c r="B299" s="5">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C299" s="5">
+        <v>1</v>
+      </c>
+      <c r="D299" s="3">
+        <f t="shared" si="6"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E299" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>42393</v>
+      </c>
+      <c r="B300" s="5">
+        <v>0</v>
+      </c>
+      <c r="C300" s="5">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="D300" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="E300" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6216,7 +6252,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(individuals!D2:D1000)</f>
-        <v>37.156249999999979</v>
+        <v>37.374999999999979</v>
       </c>
     </row>
   </sheetData>
